--- a/Resources/CustomRegions/CustomRegionMouse_2017.xlsx
+++ b/Resources/CustomRegions/CustomRegionMouse_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\CustomRegionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharoncy\Documents\GitHub\nutil\Resources\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17208" windowHeight="9408" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustomRegionMouse" sheetId="4" r:id="rId1"/>
@@ -90,13 +90,7 @@
     <t>orange</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>Atlas Ids</t>
-  </si>
-  <si>
-    <t>255;255;255</t>
   </si>
   <si>
     <t>255;0;0</t>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>mint</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>127;32;255</t>
   </si>
 </sst>
 </file>
@@ -554,28 +554,28 @@
   <dimension ref="A1:AMK399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="6" customWidth="1"/>
-    <col min="18" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" style="6" customWidth="1"/>
+    <col min="13" max="17" width="9.109375" style="6" customWidth="1"/>
+    <col min="18" max="1025" width="9.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -616,39 +616,39 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -657,7 +657,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -686,10 +686,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -698,9 +698,9 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -739,7 +739,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>567</v>
@@ -778,7 +778,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3">
         <v>688</v>
@@ -817,7 +817,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <v>695</v>
@@ -856,7 +856,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <v>315</v>
@@ -895,7 +895,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
         <v>184</v>
@@ -934,7 +934,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3">
         <v>68</v>
@@ -973,7 +973,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
         <v>667</v>
@@ -1012,7 +1012,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
         <v>500</v>
@@ -1051,7 +1051,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3">
         <v>107</v>
@@ -1090,7 +1090,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3">
         <v>219</v>
@@ -1129,7 +1129,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3">
         <v>299</v>
@@ -1168,7 +1168,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
         <v>644</v>
@@ -1207,7 +1207,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="3">
         <v>947</v>
@@ -1246,7 +1246,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
         <v>985</v>
@@ -1285,7 +1285,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3">
         <v>320</v>
@@ -1324,7 +1324,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3">
         <v>943</v>
@@ -1363,7 +1363,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3">
         <v>648</v>
@@ -1402,7 +1402,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3">
         <v>844</v>
@@ -1441,7 +1441,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3">
         <v>882</v>
@@ -1480,7 +1480,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3">
         <v>993</v>
@@ -1519,7 +1519,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="3">
         <v>656</v>
@@ -1558,7 +1558,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
         <v>962</v>
@@ -1597,7 +1597,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3">
         <v>767</v>
@@ -1636,7 +1636,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3">
         <v>1021</v>
@@ -1675,7 +1675,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3">
         <v>1085</v>
@@ -1714,7 +1714,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3">
         <v>453</v>
@@ -1753,7 +1753,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3">
         <v>12993</v>
@@ -1792,7 +1792,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3">
         <v>12994</v>
@@ -1831,7 +1831,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3">
         <v>12995</v>
@@ -1870,7 +1870,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3">
         <v>12996</v>
@@ -1909,7 +1909,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3">
         <v>12997</v>
@@ -1948,7 +1948,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3">
         <v>12998</v>
@@ -1987,7 +1987,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3">
         <v>322</v>
@@ -2026,7 +2026,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3">
         <v>793</v>
@@ -2063,7 +2063,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3">
         <v>346</v>
@@ -2100,7 +2100,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3">
         <v>865</v>
@@ -2137,7 +2137,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3">
         <v>921</v>
@@ -2174,7 +2174,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3">
         <v>686</v>
@@ -2211,7 +2211,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3">
         <v>719</v>
@@ -2248,7 +2248,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="3">
         <v>353</v>
@@ -2285,7 +2285,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="3">
         <v>558</v>
@@ -2322,7 +2322,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3">
         <v>838</v>
@@ -2359,7 +2359,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3">
         <v>654</v>
@@ -2396,7 +2396,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3">
         <v>702</v>
@@ -2433,7 +2433,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3">
         <v>889</v>
@@ -2470,7 +2470,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3">
         <v>929</v>
@@ -2507,7 +2507,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3">
         <v>329</v>
@@ -2544,7 +2544,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>981</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>201</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>1047</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>1070</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>1038</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>1062</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>480149202</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>480149206</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>480149210</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>480149214</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>480149218</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>480149222</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>480149226</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>337</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>1030</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>113</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>1094</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>1128</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>478</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>510</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>345</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>878</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>657</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
         <v>950</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>974</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
         <v>1102</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
         <v>2</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
         <v>369</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
         <v>450</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
         <v>854</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
         <v>577</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
         <v>625</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>945</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
         <v>1026</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>361</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
         <v>1006</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
         <v>670</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
         <v>1086</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
         <v>1111</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
         <v>9</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B92" s="3">
         <v>461</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B93" s="3">
         <v>182305689</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B94" s="3">
         <v>182305693</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="3">
         <v>182305697</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="3">
         <v>182305701</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
         <v>182305705</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
         <v>182305709</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B99" s="3">
         <v>182305713</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B100" s="3">
         <v>378</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B101" s="3">
         <v>873</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B102" s="3">
         <v>806</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B103" s="3">
         <v>1035</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B104" s="3">
         <v>1090</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B105" s="3">
         <v>862</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B106" s="3">
         <v>893</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B107" s="3">
         <v>1057</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B108" s="3">
         <v>36</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B109" s="3">
         <v>180</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B110" s="3">
         <v>148</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B111" s="3">
         <v>187</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
         <v>638</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B113" s="3">
         <v>662</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
         <v>677</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B115" s="3">
         <v>897</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
         <v>1106</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B117" s="3">
         <v>1010</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B118" s="3">
         <v>1058</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
         <v>857</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
         <v>849</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
         <v>247</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B122" s="3">
         <v>1011</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
         <v>527</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B124" s="3">
         <v>600</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B125" s="3">
         <v>678</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
         <v>252</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B127" s="3">
         <v>156</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B128" s="3">
         <v>243</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B129" s="3">
         <v>480149230</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B130" s="3">
         <v>480149234</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B131" s="3">
         <v>480149238</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B132" s="3">
         <v>480149242</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B133" s="3">
         <v>480149246</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B134" s="3">
         <v>480149250</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <v>480149254</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <v>1002</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <v>735</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
         <v>251</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <v>816</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
         <v>847</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <v>954</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B142" s="3">
         <v>1005</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B143" s="3">
         <v>1027</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B144" s="3">
         <v>696</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B145" s="3">
         <v>643</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B146" s="3">
         <v>759</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B147" s="3">
         <v>791</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B148" s="3">
         <v>249</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B149" s="3">
         <v>456</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B150" s="3">
         <v>1018</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B151" s="3">
         <v>959</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B152" s="3">
         <v>755</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B153" s="3">
         <v>990</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B154" s="3">
         <v>1023</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B155" s="3">
         <v>520</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B156" s="3">
         <v>598</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
         <v>669</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
         <v>801</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
         <v>561</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>913</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
         <v>937</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
         <v>457</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
         <v>497</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B164" s="3">
         <v>402</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B165" s="3">
         <v>1074</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B166" s="3">
         <v>905</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
     </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B167" s="3">
         <v>1114</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B168" s="3">
         <v>233</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B169" s="3">
         <v>601</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
         <v>649</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
         <v>394</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B172" s="3">
         <v>281</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
         <v>1066</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
         <v>401</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
     </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B175" s="3">
         <v>433</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B176" s="3">
         <v>1046</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="3">
         <v>441</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="P177" s="7"/>
       <c r="Q177" s="7"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B178" s="3">
         <v>409</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B179" s="3">
         <v>421</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
         <v>973</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B181" s="3">
         <v>573</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B182" s="3">
         <v>613</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B183" s="3">
         <v>74</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B184" s="3">
         <v>121</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B185" s="3">
         <v>385</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B186" s="3">
         <v>593</v>
       </c>
@@ -6176,7 +6176,7 @@
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B187" s="3">
         <v>821</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B188" s="3">
         <v>721</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B189" s="3">
         <v>778</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B190" s="3">
         <v>33</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B191" s="3">
         <v>305</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B192" s="3">
         <v>425</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="P192" s="7"/>
       <c r="Q192" s="7"/>
     </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B193" s="3">
         <v>750</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B194" s="3">
         <v>269</v>
       </c>
@@ -6360,7 +6360,7 @@
       <c r="P194" s="7"/>
       <c r="Q194" s="7"/>
     </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B195" s="3">
         <v>869</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B196" s="3">
         <v>902</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="P196" s="7"/>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B197" s="3">
         <v>377</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B198" s="3">
         <v>393</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B199" s="3">
         <v>533</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B200" s="3">
         <v>805</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B201" s="3">
         <v>41</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B202" s="3">
         <v>501</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B203" s="3">
         <v>565</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B204" s="3">
         <v>257</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
     </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B205" s="3">
         <v>469</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B206" s="3">
         <v>312782574</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B207" s="3">
         <v>312782578</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B208" s="3">
         <v>312782582</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="P208" s="7"/>
       <c r="Q208" s="7"/>
     </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B209" s="3">
         <v>312782586</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
     </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B210" s="3">
         <v>312782590</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B211" s="3">
         <v>312782594</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
     </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B212" s="3">
         <v>312782598</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="P212" s="7"/>
       <c r="Q212" s="7"/>
     </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B213" s="3">
         <v>312782628</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
     </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B214" s="3">
         <v>312782632</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="P214" s="7"/>
       <c r="Q214" s="7"/>
     </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B215" s="3">
         <v>312782636</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="P215" s="7"/>
       <c r="Q215" s="7"/>
     </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B216" s="3">
         <v>312782640</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="P216" s="7"/>
       <c r="Q216" s="7"/>
     </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B217" s="3">
         <v>312782644</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="P217" s="7"/>
       <c r="Q217" s="7"/>
     </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B218" s="3">
         <v>312782648</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
     </row>
-    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B219" s="3">
         <v>312782652</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="P219" s="7"/>
       <c r="Q219" s="7"/>
     </row>
-    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B220" s="3">
         <v>31</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="P220" s="7"/>
       <c r="Q220" s="7"/>
     </row>
-    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B221" s="3">
         <v>572</v>
       </c>
@@ -6900,7 +6900,7 @@
       <c r="P221" s="7"/>
       <c r="Q221" s="7"/>
     </row>
-    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B222" s="3">
         <v>1053</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="P222" s="7"/>
       <c r="Q222" s="7"/>
     </row>
-    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B223" s="3">
         <v>739</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="P223" s="7"/>
       <c r="Q223" s="7"/>
     </row>
-    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B224" s="3">
         <v>179</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="P224" s="7"/>
       <c r="Q224" s="7"/>
     </row>
-    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B225" s="3">
         <v>227</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="P225" s="7"/>
       <c r="Q225" s="7"/>
     </row>
-    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B226" s="3">
         <v>39</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="P226" s="7"/>
       <c r="Q226" s="7"/>
     </row>
-    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B227" s="3">
         <v>935</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="P227" s="7"/>
       <c r="Q227" s="7"/>
     </row>
-    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B228" s="3">
         <v>211</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="P228" s="7"/>
       <c r="Q228" s="7"/>
     </row>
-    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B229" s="3">
         <v>1015</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
     </row>
-    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B230" s="3">
         <v>919</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="P230" s="7"/>
       <c r="Q230" s="7"/>
     </row>
-    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B231" s="3">
         <v>927</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
     </row>
-    <row r="232" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B232" s="3">
         <v>48</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="P232" s="7"/>
       <c r="Q232" s="7"/>
     </row>
-    <row r="233" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B233" s="3">
         <v>588</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="P233" s="7"/>
       <c r="Q233" s="7"/>
     </row>
-    <row r="234" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B234" s="3">
         <v>296</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="P234" s="7"/>
       <c r="Q234" s="7"/>
     </row>
-    <row r="235" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B235" s="3">
         <v>772</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="P235" s="7"/>
       <c r="Q235" s="7"/>
     </row>
-    <row r="236" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B236" s="3">
         <v>810</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
     </row>
-    <row r="237" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B237" s="3">
         <v>819</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="P237" s="7"/>
       <c r="Q237" s="7"/>
     </row>
-    <row r="238" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B238" s="3">
         <v>972</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="P238" s="7"/>
       <c r="Q238" s="7"/>
     </row>
-    <row r="239" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B239" s="3">
         <v>171</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
     </row>
-    <row r="240" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B240" s="3">
         <v>195</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="P240" s="7"/>
       <c r="Q240" s="7"/>
     </row>
-    <row r="241" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B241" s="3">
         <v>304</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
     </row>
-    <row r="242" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B242" s="3">
         <v>363</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="P242" s="7"/>
       <c r="Q242" s="7"/>
     </row>
-    <row r="243" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B243" s="3">
         <v>84</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="P243" s="7"/>
       <c r="Q243" s="7"/>
     </row>
-    <row r="244" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B244" s="3">
         <v>132</v>
       </c>
@@ -7360,7 +7360,7 @@
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
     </row>
-    <row r="245" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B245" s="3">
         <v>44</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
     </row>
-    <row r="246" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B246" s="3">
         <v>707</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="7"/>
     </row>
-    <row r="247" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B247" s="3">
         <v>747</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="P247" s="7"/>
       <c r="Q247" s="7"/>
     </row>
-    <row r="248" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B248" s="3">
         <v>556</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="P248" s="7"/>
       <c r="Q248" s="7"/>
     </row>
-    <row r="249" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B249" s="3">
         <v>827</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
     </row>
-    <row r="250" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B250" s="3">
         <v>1054</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="P250" s="7"/>
       <c r="Q250" s="7"/>
     </row>
-    <row r="251" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B251" s="3">
         <v>1081</v>
       </c>
@@ -7500,7 +7500,7 @@
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
     </row>
-    <row r="252" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B252" s="3">
         <v>714</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="P252" s="7"/>
       <c r="Q252" s="7"/>
     </row>
-    <row r="253" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B253" s="3">
         <v>264</v>
       </c>
@@ -7540,7 +7540,7 @@
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
     </row>
-    <row r="254" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B254" s="3">
         <v>492</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="P254" s="7"/>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B255" s="3">
         <v>352</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
     </row>
-    <row r="256" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B256" s="3">
         <v>476</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="P256" s="7"/>
       <c r="Q256" s="7"/>
     </row>
-    <row r="257" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B257" s="3">
         <v>516</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="P257" s="7"/>
       <c r="Q257" s="7"/>
     </row>
-    <row r="258" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B258" s="3">
         <v>723</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="P258" s="7"/>
       <c r="Q258" s="7"/>
     </row>
-    <row r="259" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B259" s="3">
         <v>448</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="P259" s="7"/>
       <c r="Q259" s="7"/>
     </row>
-    <row r="260" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B260" s="3">
         <v>412</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="7"/>
     </row>
-    <row r="261" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B261" s="3">
         <v>630</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
     </row>
-    <row r="262" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B262" s="3">
         <v>440</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="P262" s="7"/>
       <c r="Q262" s="7"/>
     </row>
-    <row r="263" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B263" s="3">
         <v>488</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="P263" s="7"/>
       <c r="Q263" s="7"/>
     </row>
-    <row r="264" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B264" s="3">
         <v>731</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="P264" s="7"/>
       <c r="Q264" s="7"/>
     </row>
-    <row r="265" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B265" s="3">
         <v>484</v>
       </c>
@@ -7780,7 +7780,7 @@
       <c r="P265" s="7"/>
       <c r="Q265" s="7"/>
     </row>
-    <row r="266" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B266" s="3">
         <v>524</v>
       </c>
@@ -7800,7 +7800,7 @@
       <c r="P266" s="7"/>
       <c r="Q266" s="7"/>
     </row>
-    <row r="267" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B267" s="3">
         <v>582</v>
       </c>
@@ -7820,7 +7820,7 @@
       <c r="P267" s="7"/>
       <c r="Q267" s="7"/>
     </row>
-    <row r="268" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B268" s="3">
         <v>620</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="P268" s="7"/>
       <c r="Q268" s="7"/>
     </row>
-    <row r="269" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B269" s="3">
         <v>910</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="P269" s="7"/>
       <c r="Q269" s="7"/>
     </row>
-    <row r="270" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B270" s="3">
         <v>738</v>
       </c>
@@ -7880,7 +7880,7 @@
       <c r="P270" s="7"/>
       <c r="Q270" s="7"/>
     </row>
-    <row r="271" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B271" s="3">
         <v>746</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="P271" s="7"/>
       <c r="Q271" s="7"/>
     </row>
-    <row r="272" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B272" s="3">
         <v>969</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="P272" s="7"/>
       <c r="Q272" s="7"/>
     </row>
-    <row r="273" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B273" s="3">
         <v>288</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="P273" s="7"/>
       <c r="Q273" s="7"/>
     </row>
-    <row r="274" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B274" s="3">
         <v>1125</v>
       </c>
@@ -7960,7 +7960,7 @@
       <c r="P274" s="7"/>
       <c r="Q274" s="7"/>
     </row>
-    <row r="275" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B275" s="3">
         <v>608</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="P275" s="7"/>
       <c r="Q275" s="7"/>
     </row>
-    <row r="276" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B276" s="3">
         <v>680</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="P276" s="7"/>
       <c r="Q276" s="7"/>
     </row>
-    <row r="277" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B277" s="3">
         <v>95</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="P277" s="7"/>
       <c r="Q277" s="7"/>
     </row>
-    <row r="278" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B278" s="3">
         <v>104</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="P278" s="7"/>
       <c r="Q278" s="7"/>
     </row>
-    <row r="279" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B279" s="3">
         <v>996</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="P279" s="7"/>
       <c r="Q279" s="7"/>
     </row>
-    <row r="280" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B280" s="3">
         <v>328</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="P280" s="7"/>
       <c r="Q280" s="7"/>
     </row>
-    <row r="281" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B281" s="3">
         <v>1101</v>
       </c>
@@ -8100,7 +8100,7 @@
       <c r="P281" s="7"/>
       <c r="Q281" s="7"/>
     </row>
-    <row r="282" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B282" s="3">
         <v>783</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="P282" s="7"/>
       <c r="Q282" s="7"/>
     </row>
-    <row r="283" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B283" s="3">
         <v>831</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="P283" s="7"/>
       <c r="Q283" s="7"/>
     </row>
-    <row r="284" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B284" s="3">
         <v>111</v>
       </c>
@@ -8160,7 +8160,7 @@
       <c r="P284" s="7"/>
       <c r="Q284" s="7"/>
     </row>
-    <row r="285" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B285" s="3">
         <v>120</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="P285" s="7"/>
       <c r="Q285" s="7"/>
     </row>
-    <row r="286" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B286" s="3">
         <v>163</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="P286" s="7"/>
       <c r="Q286" s="7"/>
     </row>
-    <row r="287" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B287" s="3">
         <v>344</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="P287" s="7"/>
       <c r="Q287" s="7"/>
     </row>
-    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B288" s="3">
         <v>314</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="P288" s="7"/>
       <c r="Q288" s="7"/>
     </row>
-    <row r="289" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B289" s="3">
         <v>355</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="P289" s="7"/>
       <c r="Q289" s="7"/>
     </row>
-    <row r="290" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B290" s="3">
         <v>119</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="P290" s="7"/>
       <c r="Q290" s="7"/>
     </row>
-    <row r="291" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B291" s="3">
         <v>704</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="P291" s="7"/>
       <c r="Q291" s="7"/>
     </row>
-    <row r="292" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B292" s="3">
         <v>694</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="P292" s="7"/>
       <c r="Q292" s="7"/>
     </row>
-    <row r="293" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B293" s="3">
         <v>800</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="P293" s="7"/>
       <c r="Q293" s="7"/>
     </row>
-    <row r="294" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B294" s="3">
         <v>675</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="P294" s="7"/>
       <c r="Q294" s="7"/>
     </row>
-    <row r="295" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B295" s="3">
         <v>699</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="P295" s="7"/>
       <c r="Q295" s="7"/>
     </row>
-    <row r="296" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B296" s="3">
         <v>254</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="P296" s="7"/>
       <c r="Q296" s="7"/>
     </row>
-    <row r="297" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B297" s="3">
         <v>894</v>
       </c>
@@ -8420,7 +8420,7 @@
       <c r="P297" s="7"/>
       <c r="Q297" s="7"/>
     </row>
-    <row r="298" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B298" s="3">
         <v>671</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="P298" s="7"/>
       <c r="Q298" s="7"/>
     </row>
-    <row r="299" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B299" s="3">
         <v>965</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="P299" s="7"/>
       <c r="Q299" s="7"/>
     </row>
-    <row r="300" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B300" s="3">
         <v>774</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
     </row>
-    <row r="301" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B301" s="3">
         <v>906</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
     </row>
-    <row r="302" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B302" s="3">
         <v>279</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
     </row>
-    <row r="303" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B303" s="3">
         <v>480149258</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
     </row>
-    <row r="304" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B304" s="3">
         <v>480149262</v>
       </c>
@@ -8560,7 +8560,7 @@
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
     </row>
-    <row r="305" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B305" s="3">
         <v>480149266</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
     </row>
-    <row r="306" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B306" s="3">
         <v>480149270</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
     </row>
-    <row r="307" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B307" s="3">
         <v>480149274</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
     </row>
-    <row r="308" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B308" s="3">
         <v>480149278</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
     </row>
-    <row r="309" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B309" s="3">
         <v>480149282</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="P309" s="7"/>
       <c r="Q309" s="7"/>
     </row>
-    <row r="310" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B310" s="3">
         <v>480149286</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="P310" s="7"/>
       <c r="Q310" s="7"/>
     </row>
-    <row r="311" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B311" s="3">
         <v>480149290</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="P311" s="7"/>
       <c r="Q311" s="7"/>
     </row>
-    <row r="312" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B312" s="3">
         <v>480149294</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="P312" s="7"/>
       <c r="Q312" s="7"/>
     </row>
-    <row r="313" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B313" s="3">
         <v>480149298</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="P313" s="7"/>
       <c r="Q313" s="7"/>
     </row>
-    <row r="314" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B314" s="3">
         <v>480149302</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="P314" s="7"/>
       <c r="Q314" s="7"/>
     </row>
-    <row r="315" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B315" s="3">
         <v>480149306</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="P315" s="7"/>
       <c r="Q315" s="7"/>
     </row>
-    <row r="316" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B316" s="3">
         <v>480149310</v>
       </c>
@@ -8800,7 +8800,7 @@
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
     </row>
-    <row r="317" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B317" s="3">
         <v>480149314</v>
       </c>
@@ -8820,7 +8820,7 @@
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
     </row>
-    <row r="318" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B318" s="3">
         <v>480149318</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="P318" s="7"/>
       <c r="Q318" s="7"/>
     </row>
-    <row r="319" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B319" s="3">
         <v>480149322</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="P319" s="7"/>
       <c r="Q319" s="7"/>
     </row>
-    <row r="320" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B320" s="3">
         <v>480149326</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="P320" s="7"/>
       <c r="Q320" s="7"/>
     </row>
-    <row r="321" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B321" s="3">
         <v>480149330</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
     </row>
-    <row r="322" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B322" s="3">
         <v>480149334</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
     </row>
-    <row r="323" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B323" s="3">
         <v>480149338</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="P323" s="7"/>
       <c r="Q323" s="7"/>
     </row>
-    <row r="324" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B324" s="3">
         <v>879</v>
       </c>
@@ -8960,7 +8960,7 @@
       <c r="P324" s="7"/>
       <c r="Q324" s="7"/>
     </row>
-    <row r="325" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B325" s="3">
         <v>442</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
     </row>
-    <row r="326" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B326" s="3">
         <v>434</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="P326" s="7"/>
       <c r="Q326" s="7"/>
     </row>
-    <row r="327" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B327" s="3">
         <v>545</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
     </row>
-    <row r="328" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B328" s="3">
         <v>610</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="P328" s="7"/>
       <c r="Q328" s="7"/>
     </row>
-    <row r="329" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B329" s="3">
         <v>274</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
     </row>
-    <row r="330" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B330" s="3">
         <v>330</v>
       </c>
@@ -9080,7 +9080,7 @@
       <c r="P330" s="7"/>
       <c r="Q330" s="7"/>
     </row>
-    <row r="331" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B331" s="3">
         <v>886</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="P331" s="7"/>
       <c r="Q331" s="7"/>
     </row>
-    <row r="332" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B332" s="3">
         <v>542</v>
       </c>
@@ -9120,7 +9120,7 @@
       <c r="P332" s="7"/>
       <c r="Q332" s="7"/>
     </row>
-    <row r="333" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B333" s="3">
         <v>606</v>
       </c>
@@ -9140,7 +9140,7 @@
       <c r="P333" s="7"/>
       <c r="Q333" s="7"/>
     </row>
-    <row r="334" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B334" s="3">
         <v>430</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="P334" s="7"/>
       <c r="Q334" s="7"/>
     </row>
-    <row r="335" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B335" s="3">
         <v>687</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
     </row>
-    <row r="336" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B336" s="3">
         <v>590</v>
       </c>
@@ -9200,7 +9200,7 @@
       <c r="P336" s="7"/>
       <c r="Q336" s="7"/>
     </row>
-    <row r="337" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B337" s="3">
         <v>622</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="P337" s="7"/>
       <c r="Q337" s="7"/>
     </row>
-    <row r="338" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B338" s="3">
         <v>22</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="P338" s="7"/>
       <c r="Q338" s="7"/>
     </row>
-    <row r="339" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B339" s="3">
         <v>532</v>
       </c>
@@ -9260,7 +9260,7 @@
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
     </row>
-    <row r="340" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B340" s="3">
         <v>241</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
     </row>
-    <row r="341" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B341" s="3">
         <v>635</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="P341" s="7"/>
       <c r="Q341" s="7"/>
     </row>
-    <row r="342" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B342" s="3">
         <v>683</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="P342" s="7"/>
       <c r="Q342" s="7"/>
     </row>
-    <row r="343" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B343" s="3">
         <v>308</v>
       </c>
@@ -9340,7 +9340,7 @@
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
     </row>
-    <row r="344" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B344" s="3">
         <v>340</v>
       </c>
@@ -9360,7 +9360,7 @@
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
     </row>
-    <row r="345" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B345" s="3">
         <v>312782546</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
     </row>
-    <row r="346" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B346" s="3">
         <v>312782550</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
     </row>
-    <row r="347" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B347" s="3">
         <v>312782554</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
     </row>
-    <row r="348" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B348" s="3">
         <v>312782558</v>
       </c>
@@ -9440,7 +9440,7 @@
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
     </row>
-    <row r="349" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B349" s="3">
         <v>312782562</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
     </row>
-    <row r="350" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B350" s="3">
         <v>312782566</v>
       </c>
@@ -9480,7 +9480,7 @@
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
     </row>
-    <row r="351" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B351" s="3">
         <v>312782570</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
     </row>
-    <row r="352" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B352" s="3">
         <v>417</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
     </row>
-    <row r="353" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B353" s="3">
         <v>312782604</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
     </row>
-    <row r="354" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B354" s="3">
         <v>312782608</v>
       </c>
@@ -9560,7 +9560,7 @@
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
     </row>
-    <row r="355" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B355" s="3">
         <v>312782612</v>
       </c>
@@ -9580,7 +9580,7 @@
       <c r="P355" s="7"/>
       <c r="Q355" s="7"/>
     </row>
-    <row r="356" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B356" s="3">
         <v>312782616</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
     </row>
-    <row r="357" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B357" s="3">
         <v>312782620</v>
       </c>
@@ -9620,7 +9620,7 @@
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
     </row>
-    <row r="358" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B358" s="3">
         <v>312782624</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
     </row>
-    <row r="359" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B359" s="3">
         <v>541</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
     </row>
-    <row r="360" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B360" s="3">
         <v>97</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="P360" s="7"/>
       <c r="Q360" s="7"/>
     </row>
-    <row r="361" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B361" s="3">
         <v>1127</v>
       </c>
@@ -9700,7 +9700,7 @@
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
     </row>
-    <row r="362" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B362" s="3">
         <v>234</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="P362" s="7"/>
       <c r="Q362" s="7"/>
     </row>
-    <row r="363" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B363" s="3">
         <v>289</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="P363" s="7"/>
       <c r="Q363" s="7"/>
     </row>
-    <row r="364" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B364" s="3">
         <v>729</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
     </row>
-    <row r="365" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B365" s="3">
         <v>786</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
     </row>
-    <row r="366" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B366" s="3">
         <v>922</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
     </row>
-    <row r="367" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B367" s="3">
         <v>335</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
     </row>
-    <row r="368" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B368" s="3">
         <v>368</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
     </row>
-    <row r="369" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B369" s="3">
         <v>540</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
     </row>
-    <row r="370" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B370" s="3">
         <v>692</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
     </row>
-    <row r="371" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B371" s="3">
         <v>888</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
     </row>
-    <row r="372" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B372" s="3">
         <v>895</v>
       </c>
@@ -9920,7 +9920,7 @@
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
     </row>
-    <row r="373" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B373" s="3">
         <v>836</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
     </row>
-    <row r="374" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B374" s="3">
         <v>427</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
     </row>
-    <row r="375" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B375" s="3">
         <v>988</v>
       </c>
@@ -9980,7 +9980,7 @@
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
     </row>
-    <row r="376" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B376" s="3">
         <v>977</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
     </row>
-    <row r="377" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B377" s="3">
         <v>1045</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
     </row>
-    <row r="378" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B378" s="3">
         <v>703</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
     </row>
-    <row r="379" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B379" s="3">
         <v>16</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
     </row>
-    <row r="380" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B380" s="3">
         <v>583</v>
       </c>
@@ -10080,7 +10080,7 @@
       <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
     </row>
-    <row r="381" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B381" s="3">
         <v>942</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="P381" s="7"/>
       <c r="Q381" s="7"/>
     </row>
-    <row r="382" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B382" s="3">
         <v>952</v>
       </c>
@@ -10120,7 +10120,7 @@
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
     </row>
-    <row r="383" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B383" s="3">
         <v>966</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
     </row>
-    <row r="384" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B384" s="3">
         <v>131</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
     </row>
-    <row r="385" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B385" s="3">
         <v>295</v>
       </c>
@@ -10180,7 +10180,7 @@
       <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
     </row>
-    <row r="386" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B386" s="3">
         <v>303</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
     </row>
-    <row r="387" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B387" s="3">
         <v>311</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
     </row>
-    <row r="388" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B388" s="3">
         <v>451</v>
       </c>
@@ -10240,7 +10240,7 @@
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
     </row>
-    <row r="389" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B389" s="3">
         <v>319</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
     </row>
-    <row r="390" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B390" s="3">
         <v>327</v>
       </c>
@@ -10280,7 +10280,7 @@
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
     </row>
-    <row r="391" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B391" s="3">
         <v>334</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
     </row>
-    <row r="392" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B392" s="3">
         <v>780</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
     </row>
-    <row r="393" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -10338,7 +10338,7 @@
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
     </row>
-    <row r="394" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -10356,7 +10356,7 @@
       <c r="P394" s="7"/>
       <c r="Q394" s="7"/>
     </row>
-    <row r="395" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -10374,7 +10374,7 @@
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
     </row>
-    <row r="396" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -10392,7 +10392,7 @@
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
     </row>
-    <row r="397" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -10410,7 +10410,7 @@
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
     </row>
-    <row r="398" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -10428,7 +10428,7 @@
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
     </row>
-    <row r="399" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -10474,7 +10474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
